--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf7</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,10 +543,10 @@
         <v>33.422096</v>
       </c>
       <c r="I2">
-        <v>0.9684602815214559</v>
+        <v>0.9461861633339901</v>
       </c>
       <c r="J2">
-        <v>0.9684602815214559</v>
+        <v>0.94618616333399</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N2">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q2">
-        <v>41.99118719344</v>
+        <v>88.62734758043021</v>
       </c>
       <c r="R2">
-        <v>377.92068474096</v>
+        <v>797.646128223872</v>
       </c>
       <c r="S2">
-        <v>0.02601908992928816</v>
+        <v>0.04745715048021137</v>
       </c>
       <c r="T2">
-        <v>0.02601908992928816</v>
+        <v>0.04745715048021136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>33.422096</v>
       </c>
       <c r="I3">
-        <v>0.9684602815214559</v>
+        <v>0.9461861633339901</v>
       </c>
       <c r="J3">
-        <v>0.9684602815214559</v>
+        <v>0.94618616333399</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
         <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P3">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q3">
-        <v>918.8915475815288</v>
+        <v>918.8915475815289</v>
       </c>
       <c r="R3">
         <v>8270.023928233761</v>
       </c>
       <c r="S3">
-        <v>0.5693747524128506</v>
+        <v>0.4920374538908123</v>
       </c>
       <c r="T3">
-        <v>0.5693747524128507</v>
+        <v>0.4920374538908122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,10 +667,10 @@
         <v>33.422096</v>
       </c>
       <c r="I4">
-        <v>0.9684602815214559</v>
+        <v>0.9461861633339901</v>
       </c>
       <c r="J4">
-        <v>0.9684602815214559</v>
+        <v>0.94618616333399</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N4">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O4">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P4">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q4">
-        <v>595.7091854584818</v>
+        <v>745.3458769514009</v>
       </c>
       <c r="R4">
-        <v>5361.382669126336</v>
+        <v>6708.112892562609</v>
       </c>
       <c r="S4">
-        <v>0.3691205680073905</v>
+        <v>0.3991092186324013</v>
       </c>
       <c r="T4">
-        <v>0.3691205680073905</v>
+        <v>0.3991092186324012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>33.422096</v>
       </c>
       <c r="I5">
-        <v>0.9684602815214559</v>
+        <v>0.9461861633339901</v>
       </c>
       <c r="J5">
-        <v>0.9684602815214559</v>
+        <v>0.94618616333399</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N5">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q5">
-        <v>6.368086488492445</v>
+        <v>14.16019936195556</v>
       </c>
       <c r="R5">
-        <v>57.31277839643201</v>
+        <v>127.4417942576</v>
       </c>
       <c r="S5">
-        <v>0.003945871171926634</v>
+        <v>0.007582340330565221</v>
       </c>
       <c r="T5">
-        <v>0.003945871171926634</v>
+        <v>0.007582340330565218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3628176666666666</v>
+        <v>0.5338349999999999</v>
       </c>
       <c r="H6">
-        <v>1.088453</v>
+        <v>1.601505</v>
       </c>
       <c r="I6">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="J6">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N6">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q6">
-        <v>1.36752146467</v>
+        <v>4.246805475239999</v>
       </c>
       <c r="R6">
-        <v>12.30769318203</v>
+        <v>38.22124927716</v>
       </c>
       <c r="S6">
-        <v>0.0008473602759923698</v>
+        <v>0.002274030443207718</v>
       </c>
       <c r="T6">
-        <v>0.0008473602759923698</v>
+        <v>0.002274030443207718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3628176666666666</v>
+        <v>0.5338349999999999</v>
       </c>
       <c r="H7">
-        <v>1.088453</v>
+        <v>1.601505</v>
       </c>
       <c r="I7">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="J7">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N7">
         <v>247.44181</v>
       </c>
       <c r="O7">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P7">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q7">
-        <v>29.92542004665888</v>
+        <v>44.03103288045</v>
       </c>
       <c r="R7">
-        <v>269.32878041993</v>
+        <v>396.27929592405</v>
       </c>
       <c r="S7">
-        <v>0.01854275259660628</v>
+        <v>0.0235772299437296</v>
       </c>
       <c r="T7">
-        <v>0.01854275259660628</v>
+        <v>0.0235772299437296</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3628176666666666</v>
+        <v>0.5338349999999999</v>
       </c>
       <c r="H8">
-        <v>1.088453</v>
+        <v>1.601505</v>
       </c>
       <c r="I8">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="J8">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N8">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O8">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P8">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q8">
-        <v>19.40038261034978</v>
+        <v>35.71514930323499</v>
       </c>
       <c r="R8">
-        <v>174.603443493148</v>
+        <v>321.436343729115</v>
       </c>
       <c r="S8">
-        <v>0.01202110093901197</v>
+        <v>0.01912433646249726</v>
       </c>
       <c r="T8">
-        <v>0.01202110093901197</v>
+        <v>0.01912433646249725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3628176666666666</v>
+        <v>0.5338349999999999</v>
       </c>
       <c r="H9">
-        <v>1.088453</v>
+        <v>1.601505</v>
       </c>
       <c r="I9">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="J9">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N9">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q9">
-        <v>0.2073886342334444</v>
+        <v>0.6785220795</v>
       </c>
       <c r="R9">
-        <v>1.866497708101</v>
+        <v>6.1066987155</v>
       </c>
       <c r="S9">
-        <v>0.0001285046669334281</v>
+        <v>0.0003633271818470587</v>
       </c>
       <c r="T9">
-        <v>0.0001285046669334281</v>
+        <v>0.0003633271818470586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H10">
+        <v>0.299359</v>
+      </c>
+      <c r="I10">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="J10">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.955277333333332</v>
+      </c>
+      <c r="N10">
+        <v>23.865832</v>
+      </c>
+      <c r="O10">
+        <v>0.05015625076675284</v>
+      </c>
+      <c r="P10">
+        <v>0.05015625076675283</v>
+      </c>
+      <c r="Q10">
+        <v>0.7938279557431109</v>
+      </c>
+      <c r="R10">
+        <v>7.144451601687999</v>
+      </c>
+      <c r="S10">
+        <v>0.0004250698433337512</v>
+      </c>
+      <c r="T10">
+        <v>0.0004250698433337511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H11">
+        <v>0.299359</v>
+      </c>
+      <c r="I11">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="J11">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>82.48060333333333</v>
+      </c>
+      <c r="N11">
+        <v>247.44181</v>
+      </c>
+      <c r="O11">
+        <v>0.520021823355633</v>
+      </c>
+      <c r="P11">
+        <v>0.520021823355633</v>
+      </c>
+      <c r="Q11">
+        <v>8.230436977754444</v>
+      </c>
+      <c r="R11">
+        <v>74.07393279979</v>
+      </c>
+      <c r="S11">
+        <v>0.004407139521091066</v>
+      </c>
+      <c r="T11">
+        <v>0.004407139521091066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H12">
+        <v>0.299359</v>
+      </c>
+      <c r="I12">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="J12">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>66.90297433333333</v>
+      </c>
+      <c r="N12">
+        <v>200.708923</v>
+      </c>
+      <c r="O12">
+        <v>0.4218083439585467</v>
+      </c>
+      <c r="P12">
+        <v>0.4218083439585465</v>
+      </c>
+      <c r="Q12">
+        <v>6.676002497817444</v>
+      </c>
+      <c r="R12">
+        <v>60.084022480357</v>
+      </c>
+      <c r="S12">
+        <v>0.003574788863648079</v>
+      </c>
+      <c r="T12">
+        <v>0.003574788863648078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H13">
+        <v>0.299359</v>
+      </c>
+      <c r="I13">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="J13">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.271033333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.8131</v>
+      </c>
+      <c r="O13">
+        <v>0.008013581919067616</v>
+      </c>
+      <c r="P13">
+        <v>0.008013581919067614</v>
+      </c>
+      <c r="Q13">
+        <v>0.1268317558777778</v>
+      </c>
+      <c r="R13">
+        <v>1.1414858029</v>
+      </c>
+      <c r="S13">
+        <v>6.791440665533584E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.791440665533583E-05</v>
       </c>
     </row>
   </sheetData>
